--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N2">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O2">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P2">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q2">
-        <v>33.2068521690003</v>
+        <v>61.43068432013133</v>
       </c>
       <c r="R2">
-        <v>33.2068521690003</v>
+        <v>552.8761588811819</v>
       </c>
       <c r="S2">
-        <v>0.002585619200624441</v>
+        <v>0.004141886043326206</v>
       </c>
       <c r="T2">
-        <v>0.002585619200624441</v>
+        <v>0.004141886043326208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N3">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P3">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q3">
-        <v>25.5975965801113</v>
+        <v>45.50738747249433</v>
       </c>
       <c r="R3">
-        <v>25.5975965801113</v>
+        <v>409.566487252449</v>
       </c>
       <c r="S3">
-        <v>0.001993131925619881</v>
+        <v>0.003068277931893291</v>
       </c>
       <c r="T3">
-        <v>0.001993131925619881</v>
+        <v>0.003068277931893291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N4">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O4">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P4">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q4">
-        <v>96.34390744583757</v>
+        <v>202.739230299333</v>
       </c>
       <c r="R4">
-        <v>96.34390744583757</v>
+        <v>1824.653072693997</v>
       </c>
       <c r="S4">
-        <v>0.007501724514186046</v>
+        <v>0.01366943568519423</v>
       </c>
       <c r="T4">
-        <v>0.007501724514186046</v>
+        <v>0.01366943568519424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N5">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O5">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P5">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q5">
-        <v>8.513570783523594</v>
+        <v>15.241867357398</v>
       </c>
       <c r="R5">
-        <v>8.513570783523594</v>
+        <v>137.176806216582</v>
       </c>
       <c r="S5">
-        <v>0.0006629008968306728</v>
+        <v>0.001027663591583137</v>
       </c>
       <c r="T5">
-        <v>0.0006629008968306728</v>
+        <v>0.001027663591583138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N6">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O6">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P6">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q6">
-        <v>2171.497658904355</v>
+        <v>2271.053369306425</v>
       </c>
       <c r="R6">
-        <v>2171.497658904355</v>
+        <v>20439.48032375782</v>
       </c>
       <c r="S6">
-        <v>0.1690815501692027</v>
+        <v>0.1531228954728846</v>
       </c>
       <c r="T6">
-        <v>0.1690815501692027</v>
+        <v>0.1531228954728846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N7">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P7">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q7">
-        <v>1673.905155610635</v>
+        <v>1682.379201722041</v>
       </c>
       <c r="R7">
-        <v>1673.905155610635</v>
+        <v>15141.41281549837</v>
       </c>
       <c r="S7">
-        <v>0.1303369945559462</v>
+        <v>0.1134322857105348</v>
       </c>
       <c r="T7">
-        <v>0.1303369945559462</v>
+        <v>0.1134322857105348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N8">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O8">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P8">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q8">
-        <v>6300.222869773822</v>
+        <v>7495.140533718656</v>
       </c>
       <c r="R8">
-        <v>6300.222869773822</v>
+        <v>67456.2648034679</v>
       </c>
       <c r="S8">
-        <v>0.4905607173301312</v>
+        <v>0.5053503524004285</v>
       </c>
       <c r="T8">
-        <v>0.4905607173301312</v>
+        <v>0.5053503524004286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N9">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O9">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P9">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q9">
-        <v>556.7284406016785</v>
+        <v>563.4821522767361</v>
       </c>
       <c r="R9">
-        <v>556.7284406016785</v>
+        <v>5071.339370490624</v>
       </c>
       <c r="S9">
-        <v>0.04334911777326527</v>
+        <v>0.03799207005437175</v>
       </c>
       <c r="T9">
-        <v>0.04334911777326527</v>
+        <v>0.03799207005437176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H10">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N10">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O10">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P10">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q10">
-        <v>30.67278425243324</v>
+        <v>39.37658077714978</v>
       </c>
       <c r="R10">
-        <v>30.67278425243324</v>
+        <v>354.389226994348</v>
       </c>
       <c r="S10">
-        <v>0.002388306470486207</v>
+        <v>0.002654916059617078</v>
       </c>
       <c r="T10">
-        <v>0.002388306470486207</v>
+        <v>0.002654916059617078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H11">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N11">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O11">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P11">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q11">
-        <v>23.64420310864455</v>
+        <v>29.16987395793178</v>
       </c>
       <c r="R11">
-        <v>23.64420310864455</v>
+        <v>262.528865621386</v>
       </c>
       <c r="S11">
-        <v>0.001841032845571761</v>
+        <v>0.001966741786601734</v>
       </c>
       <c r="T11">
-        <v>0.001841032845571761</v>
+        <v>0.001966741786601734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H12">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N12">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O12">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P12">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q12">
-        <v>88.99175001842812</v>
+        <v>129.954236501362</v>
       </c>
       <c r="R12">
-        <v>88.99175001842812</v>
+        <v>1169.588128512258</v>
       </c>
       <c r="S12">
-        <v>0.006929255937111168</v>
+        <v>0.008761999713874483</v>
       </c>
       <c r="T12">
-        <v>0.006929255937111168</v>
+        <v>0.008761999713874487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H13">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N13">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O13">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P13">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q13">
-        <v>7.863886601832629</v>
+        <v>9.769915927772001</v>
       </c>
       <c r="R13">
-        <v>7.863886601832629</v>
+        <v>87.92924334994801</v>
       </c>
       <c r="S13">
-        <v>0.0006123138708164961</v>
+        <v>0.0006587242006752034</v>
       </c>
       <c r="T13">
-        <v>0.0006123138708164961</v>
+        <v>0.0006587242006752036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H14">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N14">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O14">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P14">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q14">
-        <v>370.4353848461427</v>
+        <v>432.2634414108236</v>
       </c>
       <c r="R14">
-        <v>370.4353848461427</v>
+        <v>3890.370972697412</v>
       </c>
       <c r="S14">
-        <v>0.02884359043652542</v>
+        <v>0.02914481475885044</v>
       </c>
       <c r="T14">
-        <v>0.02884359043652542</v>
+        <v>0.02914481475885045</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H15">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N15">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O15">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P15">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q15">
-        <v>285.5511715483178</v>
+        <v>320.2174961288816</v>
       </c>
       <c r="R15">
-        <v>285.5511715483178</v>
+        <v>2881.957465159935</v>
       </c>
       <c r="S15">
-        <v>0.02223416384541822</v>
+        <v>0.021590258886477</v>
       </c>
       <c r="T15">
-        <v>0.02223416384541822</v>
+        <v>0.021590258886477</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H16">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N16">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O16">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P16">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q16">
-        <v>1074.753856542808</v>
+        <v>1426.595818817078</v>
       </c>
       <c r="R16">
-        <v>1074.753856542808</v>
+        <v>12839.3623693537</v>
       </c>
       <c r="S16">
-        <v>0.08368466222813044</v>
+        <v>0.09618641525517922</v>
       </c>
       <c r="T16">
-        <v>0.08368466222813044</v>
+        <v>0.09618641525517924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H17">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N17">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O17">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P17">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q17">
-        <v>94.97220192865943</v>
+        <v>107.250995334868</v>
       </c>
       <c r="R17">
-        <v>94.97220192865943</v>
+        <v>965.2589580138122</v>
       </c>
       <c r="S17">
-        <v>0.007394918000133829</v>
+        <v>0.007231262448508312</v>
       </c>
       <c r="T17">
-        <v>0.007394918000133829</v>
+        <v>0.007231262448508313</v>
       </c>
     </row>
   </sheetData>
